--- a/artfynd/A 29487-2022.xlsx
+++ b/artfynd/A 29487-2022.xlsx
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111702281</v>
+        <v>111701910</v>
       </c>
       <c r="B4" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,21 +930,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516917.5151204841</v>
+        <v>516978.9846792166</v>
       </c>
       <c r="R4" t="n">
-        <v>6574656.936104885</v>
+        <v>6574635.767148005</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111701910</v>
+        <v>111702271</v>
       </c>
       <c r="B5" t="n">
-        <v>90687</v>
+        <v>90709</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,29 +1042,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5964</v>
+        <v>5448</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
@@ -1073,10 +1081,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>516978.9846792166</v>
+        <v>516923.6092008445</v>
       </c>
       <c r="R5" t="n">
-        <v>6574635.767148005</v>
+        <v>6574666.663922376</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1146,10 +1154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111702271</v>
+        <v>111702281</v>
       </c>
       <c r="B6" t="n">
-        <v>90709</v>
+        <v>89183</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1158,37 +1166,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5448</v>
+        <v>3215</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>516923.6092008445</v>
+        <v>516917.5151204841</v>
       </c>
       <c r="R6" t="n">
-        <v>6574666.663922376</v>
+        <v>6574656.936104885</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 29487-2022.xlsx
+++ b/artfynd/A 29487-2022.xlsx
@@ -798,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111701829</v>
+        <v>111702281</v>
       </c>
       <c r="B3" t="n">
-        <v>90687</v>
+        <v>89183</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,21 +814,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5964</v>
+        <v>3215</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,14 +837,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Myrövägen öster (Myrövägen öster), Nrk</t>
+          <t>Kyrkogården (Kyrkogården), Nrk</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516894.5773385105</v>
+        <v>516917.5151204841</v>
       </c>
       <c r="R3" t="n">
-        <v>6574639.474785783</v>
+        <v>6574656.936104885</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111702281</v>
+        <v>111701829</v>
       </c>
       <c r="B6" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1170,21 +1170,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1193,14 +1193,14 @@
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Kyrkogården (Kyrkogården), Nrk</t>
+          <t>Myrövägen öster (Myrövägen öster), Nrk</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>516917.5151204841</v>
+        <v>516894.5773385105</v>
       </c>
       <c r="R6" t="n">
-        <v>6574656.936104885</v>
+        <v>6574639.474785783</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 29487-2022.xlsx
+++ b/artfynd/A 29487-2022.xlsx
@@ -798,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111702281</v>
+        <v>111701829</v>
       </c>
       <c r="B3" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,21 +814,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,14 +837,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Kyrkogården (Kyrkogården), Nrk</t>
+          <t>Myrövägen öster (Myrövägen öster), Nrk</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516917.5151204841</v>
+        <v>516894.5773385105</v>
       </c>
       <c r="R3" t="n">
-        <v>6574656.936104885</v>
+        <v>6574639.474785783</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111701910</v>
+        <v>111702281</v>
       </c>
       <c r="B4" t="n">
-        <v>90687</v>
+        <v>89183</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,21 +930,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>3215</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516978.9846792166</v>
+        <v>516917.5151204841</v>
       </c>
       <c r="R4" t="n">
-        <v>6574635.767148005</v>
+        <v>6574656.936104885</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111702271</v>
+        <v>111701910</v>
       </c>
       <c r="B5" t="n">
-        <v>90709</v>
+        <v>90687</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,37 +1042,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5448</v>
+        <v>5964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
@@ -1081,10 +1073,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>516923.6092008445</v>
+        <v>516978.9846792166</v>
       </c>
       <c r="R5" t="n">
-        <v>6574666.663922376</v>
+        <v>6574635.767148005</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1154,10 +1146,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111701829</v>
+        <v>111702271</v>
       </c>
       <c r="B6" t="n">
-        <v>90687</v>
+        <v>90709</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1166,41 +1158,49 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5964</v>
+        <v>5448</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Myrövägen öster (Myrövägen öster), Nrk</t>
+          <t>Kyrkogården (Kyrkogården), Nrk</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>516894.5773385105</v>
+        <v>516923.6092008445</v>
       </c>
       <c r="R6" t="n">
-        <v>6574639.474785783</v>
+        <v>6574666.663922376</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 29487-2022.xlsx
+++ b/artfynd/A 29487-2022.xlsx
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111702281</v>
+        <v>111701910</v>
       </c>
       <c r="B4" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,21 +930,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516917.5151204841</v>
+        <v>516978.9846792166</v>
       </c>
       <c r="R4" t="n">
-        <v>6574656.936104885</v>
+        <v>6574635.767148005</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111701910</v>
+        <v>111702281</v>
       </c>
       <c r="B5" t="n">
-        <v>90687</v>
+        <v>89183</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1046,21 +1046,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5964</v>
+        <v>3215</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1073,10 +1073,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>516978.9846792166</v>
+        <v>516917.5151204841</v>
       </c>
       <c r="R5" t="n">
-        <v>6574635.767148005</v>
+        <v>6574656.936104885</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 29487-2022.xlsx
+++ b/artfynd/A 29487-2022.xlsx
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111701910</v>
+        <v>111702281</v>
       </c>
       <c r="B4" t="n">
-        <v>90687</v>
+        <v>89183</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,21 +930,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>3215</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -957,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516978.9846792166</v>
+        <v>516917.5151204841</v>
       </c>
       <c r="R4" t="n">
-        <v>6574635.767148005</v>
+        <v>6574656.936104885</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111702281</v>
+        <v>111701910</v>
       </c>
       <c r="B5" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1046,21 +1046,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1073,10 +1073,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>516917.5151204841</v>
+        <v>516978.9846792166</v>
       </c>
       <c r="R5" t="n">
-        <v>6574656.936104885</v>
+        <v>6574635.767148005</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>

--- a/artfynd/A 29487-2022.xlsx
+++ b/artfynd/A 29487-2022.xlsx
@@ -798,7 +798,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111701829</v>
+        <v>111701910</v>
       </c>
       <c r="B3" t="n">
         <v>90687</v>
@@ -837,14 +837,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Myrövägen öster (Myrövägen öster), Nrk</t>
+          <t>Kyrkogården (Kyrkogården), Nrk</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516894.5773385105</v>
+        <v>516978.9846792166</v>
       </c>
       <c r="R3" t="n">
-        <v>6574639.474785783</v>
+        <v>6574635.767148005</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111702281</v>
+        <v>111701829</v>
       </c>
       <c r="B4" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,21 +930,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -953,14 +953,14 @@
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Kyrkogården (Kyrkogården), Nrk</t>
+          <t>Myrövägen öster (Myrövägen öster), Nrk</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516917.5151204841</v>
+        <v>516894.5773385105</v>
       </c>
       <c r="R4" t="n">
-        <v>6574656.936104885</v>
+        <v>6574639.474785783</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111701910</v>
+        <v>111702271</v>
       </c>
       <c r="B5" t="n">
-        <v>90687</v>
+        <v>90709</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,29 +1042,37 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5964</v>
+        <v>5448</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
@@ -1073,10 +1081,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>516978.9846792166</v>
+        <v>516923.6092008445</v>
       </c>
       <c r="R5" t="n">
-        <v>6574635.767148005</v>
+        <v>6574666.663922376</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1146,10 +1154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111702271</v>
+        <v>111702281</v>
       </c>
       <c r="B6" t="n">
-        <v>90709</v>
+        <v>89183</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1158,37 +1166,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5448</v>
+        <v>3215</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>516923.6092008445</v>
+        <v>516917.5151204841</v>
       </c>
       <c r="R6" t="n">
-        <v>6574666.663922376</v>
+        <v>6574656.936104885</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 29487-2022.xlsx
+++ b/artfynd/A 29487-2022.xlsx
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111701829</v>
+        <v>111702271</v>
       </c>
       <c r="B4" t="n">
-        <v>90687</v>
+        <v>90709</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,41 +926,49 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>5448</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Myrövägen öster (Myrövägen öster), Nrk</t>
+          <t>Kyrkogården (Kyrkogården), Nrk</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516894.5773385105</v>
+        <v>516923.6092008445</v>
       </c>
       <c r="R4" t="n">
-        <v>6574639.474785783</v>
+        <v>6574666.663922376</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1030,10 +1038,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111702271</v>
+        <v>111702281</v>
       </c>
       <c r="B5" t="n">
-        <v>90709</v>
+        <v>89183</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,37 +1050,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5448</v>
+        <v>3215</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
@@ -1081,10 +1081,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>516923.6092008445</v>
+        <v>516917.5151204841</v>
       </c>
       <c r="R5" t="n">
-        <v>6574666.663922376</v>
+        <v>6574656.936104885</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111702281</v>
+        <v>111701829</v>
       </c>
       <c r="B6" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1170,21 +1170,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1193,14 +1193,14 @@
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Kyrkogården (Kyrkogården), Nrk</t>
+          <t>Myrövägen öster (Myrövägen öster), Nrk</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>516917.5151204841</v>
+        <v>516894.5773385105</v>
       </c>
       <c r="R6" t="n">
-        <v>6574656.936104885</v>
+        <v>6574639.474785783</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 29487-2022.xlsx
+++ b/artfynd/A 29487-2022.xlsx
@@ -914,10 +914,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111702271</v>
+        <v>111702281</v>
       </c>
       <c r="B4" t="n">
-        <v>90709</v>
+        <v>89183</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,37 +926,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5448</v>
+        <v>3215</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Fr.</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
@@ -965,10 +957,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516923.6092008445</v>
+        <v>516917.5151204841</v>
       </c>
       <c r="R4" t="n">
-        <v>6574666.663922376</v>
+        <v>6574656.936104885</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1038,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111702281</v>
+        <v>111701829</v>
       </c>
       <c r="B5" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1054,21 +1046,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1077,14 +1069,14 @@
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Kyrkogården (Kyrkogården), Nrk</t>
+          <t>Myrövägen öster (Myrövägen öster), Nrk</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>516917.5151204841</v>
+        <v>516894.5773385105</v>
       </c>
       <c r="R5" t="n">
-        <v>6574656.936104885</v>
+        <v>6574639.474785783</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1154,10 +1146,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111701829</v>
+        <v>111702271</v>
       </c>
       <c r="B6" t="n">
-        <v>90687</v>
+        <v>90709</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1166,41 +1158,49 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5964</v>
+        <v>5448</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Myrövägen öster (Myrövägen öster), Nrk</t>
+          <t>Kyrkogården (Kyrkogården), Nrk</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>516894.5773385105</v>
+        <v>516923.6092008445</v>
       </c>
       <c r="R6" t="n">
-        <v>6574639.474785783</v>
+        <v>6574666.663922376</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 29487-2022.xlsx
+++ b/artfynd/A 29487-2022.xlsx
@@ -798,7 +798,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111701910</v>
+        <v>111701829</v>
       </c>
       <c r="B3" t="n">
         <v>90687</v>
@@ -837,14 +837,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Kyrkogården (Kyrkogården), Nrk</t>
+          <t>Myrövägen öster (Myrövägen öster), Nrk</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516978.9846792166</v>
+        <v>516894.5773385105</v>
       </c>
       <c r="R3" t="n">
-        <v>6574635.767148005</v>
+        <v>6574639.474785783</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111701829</v>
+        <v>111702271</v>
       </c>
       <c r="B5" t="n">
-        <v>90687</v>
+        <v>90709</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1042,41 +1042,49 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5964</v>
+        <v>5448</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Myrövägen öster (Myrövägen öster), Nrk</t>
+          <t>Kyrkogården (Kyrkogården), Nrk</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>516894.5773385105</v>
+        <v>516923.6092008445</v>
       </c>
       <c r="R5" t="n">
-        <v>6574639.474785783</v>
+        <v>6574666.663922376</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1146,10 +1154,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111702271</v>
+        <v>111701910</v>
       </c>
       <c r="B6" t="n">
-        <v>90709</v>
+        <v>90687</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1158,37 +1166,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5448</v>
+        <v>5964</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -1197,10 +1197,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>516923.6092008445</v>
+        <v>516978.9846792166</v>
       </c>
       <c r="R6" t="n">
-        <v>6574666.663922376</v>
+        <v>6574635.767148005</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>

--- a/artfynd/A 29487-2022.xlsx
+++ b/artfynd/A 29487-2022.xlsx
@@ -798,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111701829</v>
+        <v>111702281</v>
       </c>
       <c r="B3" t="n">
-        <v>90687</v>
+        <v>89183</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,21 +814,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5964</v>
+        <v>3215</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,14 +837,14 @@
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Myrövägen öster (Myrövägen öster), Nrk</t>
+          <t>Kyrkogården (Kyrkogården), Nrk</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516894.5773385105</v>
+        <v>516918</v>
       </c>
       <c r="R3" t="n">
-        <v>6574639.474785783</v>
+        <v>6574657</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -874,19 +874,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -914,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111702281</v>
+        <v>111701829</v>
       </c>
       <c r="B4" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -930,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -953,14 +943,14 @@
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Kyrkogården (Kyrkogården), Nrk</t>
+          <t>Myrövägen öster (Myrövägen öster), Nrk</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516917.5151204841</v>
+        <v>516895</v>
       </c>
       <c r="R4" t="n">
-        <v>6574656.936104885</v>
+        <v>6574639</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -990,19 +980,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1081,10 +1061,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>516923.6092008445</v>
+        <v>516924</v>
       </c>
       <c r="R5" t="n">
-        <v>6574666.663922376</v>
+        <v>6574667</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1114,19 +1094,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1197,10 +1167,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>516978.9846792166</v>
+        <v>516979</v>
       </c>
       <c r="R6" t="n">
-        <v>6574635.767148005</v>
+        <v>6574636</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1230,19 +1200,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">

--- a/artfynd/A 29487-2022.xlsx
+++ b/artfynd/A 29487-2022.xlsx
@@ -798,10 +798,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111702281</v>
+        <v>111701910</v>
       </c>
       <c r="B3" t="n">
-        <v>89183</v>
+        <v>90687</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -814,21 +814,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3215</v>
+        <v>5964</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Rödgul trumpetsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Craterellus lutescens</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fr.</t>
+          <t>(L.:Fr.) P.Karst.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -841,10 +841,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>516918</v>
+        <v>516979</v>
       </c>
       <c r="R3" t="n">
-        <v>6574657</v>
+        <v>6574636</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111701829</v>
+        <v>111702281</v>
       </c>
       <c r="B4" t="n">
-        <v>90687</v>
+        <v>89183</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,21 +920,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5964</v>
+        <v>3215</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Rödgul trumpetsvamp</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Craterellus lutescens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
+          <t>(Fr.) Fr.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -943,14 +943,14 @@
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Myrövägen öster (Myrövägen öster), Nrk</t>
+          <t>Kyrkogården (Kyrkogården), Nrk</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>516895</v>
+        <v>516918</v>
       </c>
       <c r="R4" t="n">
-        <v>6574639</v>
+        <v>6574657</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1010,10 +1010,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111702271</v>
+        <v>111701829</v>
       </c>
       <c r="B5" t="n">
-        <v>90709</v>
+        <v>90687</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1022,49 +1022,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5448</v>
+        <v>5964</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Svartvit taggsvamp</t>
+          <t>Fjällig taggsvamp s.str.</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellodon connatus</t>
+          <t>Sarcodon imbricatus s.str.</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Schultz) nom.prov</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(L.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Kyrkogården (Kyrkogården), Nrk</t>
+          <t>Myrövägen öster (Myrövägen öster), Nrk</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>516924</v>
+        <v>516895</v>
       </c>
       <c r="R5" t="n">
-        <v>6574667</v>
+        <v>6574639</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1124,10 +1116,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111701910</v>
+        <v>111702271</v>
       </c>
       <c r="B6" t="n">
-        <v>90687</v>
+        <v>90709</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1136,29 +1128,37 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5964</v>
+        <v>5448</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fjällig taggsvamp s.str.</t>
+          <t>Svartvit taggsvamp</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Sarcodon imbricatus s.str.</t>
+          <t>Phellodon connatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>(Schultz) nom.prov</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>516979</v>
+        <v>516924</v>
       </c>
       <c r="R6" t="n">
-        <v>6574636</v>
+        <v>6574667</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
